--- a/biology/Médecine/Reproduction_humaine/Reproduction_humaine.xlsx
+++ b/biology/Médecine/Reproduction_humaine/Reproduction_humaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction humaine ou procréation humaine[Note 1] est l'ensemble des processus par lesquels un homme et une femme engendrent un nouvel individu. Elle est le résultat de la fécondation humaine.
 Médicalement, elle relève du domaine de la médecine de la reproduction, dont fait partie la procréation médicalement assistée.
@@ -514,73 +526,437 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activité testiculaire : une double fonctionnalité
-Production de spermatozoïdes
-La spermatogenèse s’exerce dans les tubes séminifères (une centaine de tubes pelotonnés). Dans la paroi de ces tubes, des cellules germinales souches subissent de nombreuses mitoses (divisions cellulaires à l'identique) et une méiose (division aboutissant aux futurs gamètes contenant la moitié du patrimoine génétique) centripète.
+          <t>Activité testiculaire : une double fonctionnalité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Production de spermatozoïdes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La spermatogenèse s’exerce dans les tubes séminifères (une centaine de tubes pelotonnés). Dans la paroi de ces tubes, des cellules germinales souches subissent de nombreuses mitoses (divisions cellulaires à l'identique) et une méiose (division aboutissant aux futurs gamètes contenant la moitié du patrimoine génétique) centripète.
 Les spermatozoïdes sont libérés dans la lumière du tube puis gagnent l’épididyme où ils acquièrent leur mobilité et leur capacité à féconder l'ovule. Cette étape est appelée « capacitation ». Ils se mélangent au cours de l’éjaculation aux sécrétions prostatiques et séminales (80 % du volume) pour former le sperme. Les spermatozoïdes sont des cellules spécialisées dans leur fonction de reproduction (ils ne contiennent que des organites indispensables à leur fonction : transférer l'information génétique mâle à l'intérieur du gamète femelle).
 La testostérone produite par les cellules interstitielles de Leydig stimule la spermatogenèse en se fixant sur les cellules de la paroi des tubes séminifères. Les cellules de Sertoli (rôle de soutien et de nutrition) sécrètent une protéine indispensable à la fixation de la testostérone sur les tubes séminifères et testiculaire.
-Synthèse de testostérone
-La testostérone, seule hormone testiculaire mâle de l’adulte, est sécrétée localement et dans la circulation sanguine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de procréation chez l'homme</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activité testiculaire : une double fonctionnalité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Synthèse de testostérone</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La testostérone, seule hormone testiculaire mâle de l’adulte, est sécrétée localement et dans la circulation sanguine.
 Elle est active en très petite quantité, et sécrétée de manière pulsatile, par pulses de quelques minutes (espacés de périodes de non sécrétions). Mais la testostéronemie oscille autour d’une valeur globalement constante.
 Elle stimule aussi la spermatogenèse au niveau des tubes séminifère et provoque la mise en place et le maintien des caractères sexuels secondaires à partir de la puberté.
 Remarque : Chez certains mammifères, la testostérone est sécrétée en grande quantité lors de périodes particulières.
-Contrôle hormonal du fonctionnement du testicule : 3 niveaux de contrôle
-Rôle de l’anté-hypophyse
-Les pulses de testostérone sont déclenchés par des pulses de LH (Hormone lutéinisante). La pulsatilité de LH est indispensable a la sécrétion pulsatile de testostérone.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de procréation chez l'homme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Contrôle hormonal du fonctionnement du testicule : 3 niveaux de contrôle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rôle de l’anté-hypophyse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pulses de testostérone sont déclenchés par des pulses de LH (Hormone lutéinisante). La pulsatilité de LH est indispensable a la sécrétion pulsatile de testostérone.
 La FSH (Hormone Folliculo Stimulante) stimule les cellules de Sertoli a synthétiser une protéine(APB) indispensable à la fixation de la testostérone sur la paroi des tubes séminifères.
 L’anté-hypophyse contrôle donc, indirectement, la spermatogenèse grâce à ces deux gonadostimulines.
-Rôle du complexe hypothalamo-hypophysaire
-Sous l’influence de certains facteurs environnementaux externes (luminosité, température) et internes (adrénaline) des neurones hypothalamiques sécrètent une neurohormone GnRH de manière pulsatile et périodique qui déclenche les pulses de LH et de FSH
-Rôle du testicule lui-même : rétrocontrôle négatif
-Le maintien d’une testostéronemie globalement constante est assuré par un rétrocontrôle négatif (ou rétroaction négative) exercé par la testostérone sur le CHH (il existe donc des récepteurs à testostérone) lorsque la testostéronémie dépasse une valeur seuil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de procréation chez l'homme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contrôle hormonal du fonctionnement du testicule : 3 niveaux de contrôle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Rôle du complexe hypothalamo-hypophysaire</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous l’influence de certains facteurs environnementaux externes (luminosité, température) et internes (adrénaline) des neurones hypothalamiques sécrètent une neurohormone GnRH de manière pulsatile et périodique qui déclenche les pulses de LH et de FSH
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de procréation chez l'homme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contrôle hormonal du fonctionnement du testicule : 3 niveaux de contrôle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rôle du testicule lui-même : rétrocontrôle négatif</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le maintien d’une testostéronemie globalement constante est assuré par un rétrocontrôle négatif (ou rétroaction négative) exercé par la testostérone sur le CHH (il existe donc des récepteurs à testostérone) lorsque la testostéronémie dépasse une valeur seuil.
 Ce rétrocontrôle négatif induit une diminution de la production de GnRH et donc de LH ce qui provoque une diminution de la production de testostérone. Ceci permet de garder le taux de testostérone aux alentours de 5 ng/L.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Reproduction_humaine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Régulation de la fonction de reproduction chez la femme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fonctionnement
-Cycle ovarien
-Au moment de la phase préovulatoire, un des nombreux follicules qui auront évolué en  stade primaire, secondaire puis tertiaire (cavitaire) a une croissance très rapide pour arriver au stade de De Graaf. L'ovocyte se libère de la granulosa et se retrouve dans la cavité folliculaire accompagné par la couronne radiée. Peu de temps avant l'ovulation, l'ovocyte I devient un ovocyte II. Il se bloque en métaphase II et la méiose se termine s'il y a fécondation.
-Ovulation
-Elle dure quelques minutes. L'ovocyte II est accompagné des cellules de la couronne radiée. L'ovulation est spontanée et se produit en fin de phase folliculaire, et se fait en partie grâce aux hulmormones. En effet, ces hormones sécrétés par les cellules interstitielles chez la femme permettent l'activation d'une mitose, suivie d'une méiose de l'ovocyte II, qui devient alors l'ovule. L'ovulation se fait peu après la maturation de l'ovocyte II en ovule; soit, l'ovulation intervient de façon imprévue au cours du cycle.
-Phase lutéale
-Le reste du follicule éclaté se transforme en « corps jaune ». Les cellules de la granulosa se multiplient et se transforme en cellules lutéales. Puis, le corps jaune régresse et se charge d'un pigment jaune. En fin de cycle, il devient une cicatrice à la surface de l'ovaire. C'est ce qu'on appelle le corps blanc. S'il n'y a pas de fécondation, un nouveau cycle commence.
-Contrôle hormonal du fonctionnement
-Hormones ovariennes
-Les œstrogènes dont l'œstradiol : Les œstrogènes sont sécrétés par les cellules de la thèque interne, la granulosa des follicules et les cellules lutéiniques du corps jaune. La principale sécrétion est l'œstradiol. Au cours du cycle, il y a deux pics : Le premier correspond à la sécrétion des œstrogènes par les follicules. C'est un pic de croissance du follicule avant l'ovulation. Le second pic correspond à la sécrétion des œstrogènes par le corps jaune. S'il se produit une fécondation, alors il n'y aura pas de chute de concentration d'œstrogènes en fin de cycle.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cycle ovarien</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au moment de la phase préovulatoire, un des nombreux follicules qui auront évolué en  stade primaire, secondaire puis tertiaire (cavitaire) a une croissance très rapide pour arriver au stade de De Graaf. L'ovocyte se libère de la granulosa et se retrouve dans la cavité folliculaire accompagné par la couronne radiée. Peu de temps avant l'ovulation, l'ovocyte I devient un ovocyte II. Il se bloque en métaphase II et la méiose se termine s'il y a fécondation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de reproduction chez la femme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ovulation</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle dure quelques minutes. L'ovocyte II est accompagné des cellules de la couronne radiée. L'ovulation est spontanée et se produit en fin de phase folliculaire, et se fait en partie grâce aux hulmormones. En effet, ces hormones sécrétés par les cellules interstitielles chez la femme permettent l'activation d'une mitose, suivie d'une méiose de l'ovocyte II, qui devient alors l'ovule. L'ovulation se fait peu après la maturation de l'ovocyte II en ovule; soit, l'ovulation intervient de façon imprévue au cours du cycle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de reproduction chez la femme</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fonctionnement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phase lutéale</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le reste du follicule éclaté se transforme en « corps jaune ». Les cellules de la granulosa se multiplient et se transforme en cellules lutéales. Puis, le corps jaune régresse et se charge d'un pigment jaune. En fin de cycle, il devient une cicatrice à la surface de l'ovaire. C'est ce qu'on appelle le corps blanc. S'il n'y a pas de fécondation, un nouveau cycle commence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de reproduction chez la femme</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Contrôle hormonal du fonctionnement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hormones ovariennes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œstrogènes dont l'œstradiol : Les œstrogènes sont sécrétés par les cellules de la thèque interne, la granulosa des follicules et les cellules lutéiniques du corps jaune. La principale sécrétion est l'œstradiol. Au cours du cycle, il y a deux pics : Le premier correspond à la sécrétion des œstrogènes par les follicules. C'est un pic de croissance du follicule avant l'ovulation. Le second pic correspond à la sécrétion des œstrogènes par le corps jaune. S'il se produit une fécondation, alors il n'y aura pas de chute de concentration d'œstrogènes en fin de cycle.
 Les progestagènes : ils sont produits par les cellules lutéiniques du corps jaune. Ils évoluent en un seul pic au milieu de la phase lutéinique. Ils correspondent au développement maximal des cellules lutéiniques du corps jaune. S'il y a fécondation, ce taux reste élevé car il y a persistance du corps jaune.
-Rôle du complexe hypothalamo-hypophysaire (CHH)
-L'hypophyse sécrète : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de reproduction chez la femme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Contrôle hormonal du fonctionnement</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rôle du complexe hypothalamo-hypophysaire (CHH)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'hypophyse sécrète : 
 FSH : hormone folliculo stimulante (glycoproteine) cette hormone stimule la croissance et la maturation des follicules donc des cellules folliculaires de la granulosa et des cellules thècales, donc cette hormone stimule indirectement la sécrétion d'œstrogènes. Son action complète nécessite la présence de LH ;
-LH : hormone luténisante (glycoproteine) cette  hormone agit en synergie avec FSH, elle contribue au développement des follicules et provoque l'ovulation. Elle induit la formation du corps jaune et donc indirectement la production de progestérone.
-Rétrocontrôle ovarien
-En début de cycle, aucun follicule n'est très développé, l'œstradiol est en faible concentration donc il y a un rétrocontrôle négatif des œstrogènes sur le Complexe Hypothamo-Hypophysaire. Le taux de FSH augmente légèrement, ce qui stimule le développement folliculaire.
+LH : hormone luténisante (glycoproteine) cette  hormone agit en synergie avec FSH, elle contribue au développement des follicules et provoque l'ovulation. Elle induit la formation du corps jaune et donc indirectement la production de progestérone.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Régulation de la fonction de reproduction chez la femme</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Contrôle hormonal du fonctionnement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Rétrocontrôle ovarien</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En début de cycle, aucun follicule n'est très développé, l'œstradiol est en faible concentration donc il y a un rétrocontrôle négatif des œstrogènes sur le Complexe Hypothamo-Hypophysaire. Le taux de FSH augmente légèrement, ce qui stimule le développement folliculaire.
 Quelques follicules grossissent, il y a alors une augmentation du taux d'œstrogène produit par les follicules et donc un rétrocontrôle positif plus important. Puis, chute du taux de FSH et seul le follicule dominant poursuit son évolution. 
 En fin de phase folliculaire, si l'imprégnation de l'hypophyse par les œstrogènes est suffisante en quantité et en durée, on a un rétrocontrôle positif des œstrogènes sur le Complexe Hypothamo-Hypophysaire. Il y a augmentation des sécrétions des gonadostimulines et en particulier de LH qui augmente, donc il y a un pic de LH qui déclenche l'ovulation.
 En phase lutéinique, le  pic de LH est aussi nécessaire a la mise en place du corps jaune.
@@ -590,39 +966,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Reproduction_humaine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Fécondation et développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chez l'être humain, la parthénogenèse n'est pas possible, c'est-à-dire que la rencontre d'une gamète mâle (spermatozoïde) et d’une gamète femelle (ovule) est obligatoire pour avoir une reproduction naturelle ; Il existe cependant aujourd'hui de nombreux processus permettant la procréation à des couples ou femmes pas ou peu fertiles, telle l'insémination à partir d'un don de sperme, le don d'ovocyte et différentes méthodes de procréation médicalement assistée 
-Phases de grossesse
-La période de grossesse dure 9 mois et se divise en deux grandes périodes de la fécondation.
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'être humain, la parthénogenèse n'est pas possible, c'est-à-dire que la rencontre d'une gamète mâle (spermatozoïde) et d’une gamète femelle (ovule) est obligatoire pour avoir une reproduction naturelle ; Il existe cependant aujourd'hui de nombreux processus permettant la procréation à des couples ou femmes pas ou peu fertiles, telle l'insémination à partir d'un don de sperme, le don d'ovocyte et différentes méthodes de procréation médicalement assistée 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fécondation et développement</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Phases de grossesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de grossesse dure 9 mois et se divise en deux grandes périodes de la fécondation.
 De la fécondation jusqu'au début du 3e mois, c’est la période embryonnaire : une période pendant laquelle l’embryon se développe.
 Du 3e mois jusqu'à l’accouchement c’est la période fœtale pendant laquelle le fœtus, qui est un être humain complètement formé, continue sa croissance et développe ses réactions au monde extérieur.
-Différentes étapes de croissance / Nidation
-La chronologie utilisée ci-dessous décrit les changements spécifiques de l'anatomie et de la physiologie du fœtus depuis la fertilisation. Cependant, les obstétriciens emploient souvent l'âge de gestation qui, par convention, précède de deux semaines l'âge de fertilisation (ou âge conceptionnel). Durant tout cet article, sauf mention contraire, nous mesurerons l'âge à partir de la fertilisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fécondation et développement</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Différentes étapes de croissance / Nidation</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chronologie utilisée ci-dessous décrit les changements spécifiques de l'anatomie et de la physiologie du fœtus depuis la fertilisation. Cependant, les obstétriciens emploient souvent l'âge de gestation qui, par convention, précède de deux semaines l'âge de fertilisation (ou âge conceptionnel). Durant tout cet article, sauf mention contraire, nous mesurerons l'âge à partir de la fertilisation.
 8 semaines (L'étape fœtale commence)
 Le risque de perte du fœtus est fortement diminué au début de cette étape. À ce stade, toutes les structures majeures, incluant les mains, les pieds, la tête, le cerveau, et d'autres organes sont présents, mais ils continuent à se développer et deviennent de plus en plus fonctionnels. Quand l'étape fœtale débute, un fœtus mesure environ 30 millimètres de long, et son cœur bat déjà. Le fœtus arrive à plier la tête, et effectue des mouvements qui impliquent tout le corps. Le cerveau montre des signes d'activité dès le 54e jour. Une empreinte digitale commence à se former et est un peu visible à ce stade.
 8 à 15 semaines
@@ -632,8 +1080,43 @@
 26 à 38 semaines
 La quantité de graisses corporelles augmente rapidement. Les poumons ne sont pas entièrement matures. Les connexions aux thalamus, qui gère les facteurs sensoriels, se forment. Les os sont complètement matures mais sont encore mous et flexibles. Le fer, le calcium et le phosphore deviennent plus abondant. On observe une activité électroencéphalographique continue à partir de la 30e semaine. Les ongles atteignent les extrémités des doigts. Le lanugo commence à disparaître excepté sur les bras et les épaules. Les bourgeons de sein sont présents. Les cheveux deviennent plus épais. La naissance est imminente et se produit autour de la 38e semaine. Le fœtus est considéré comme arrivé à son terme de développement entre la 35e et 40e semaine, ce qui signifie qu'on le considère apte à vivre en dehors de l'utérus. Il peut mesurer (sans anomalie) de 48 à 53 centimètres.
 Le fœtus peut se modifier en cours de croissance selon les gênes pathogènes qu'il aurait acquis au début de son développement.
-Résumé
-L’embryon se développe dans l’utérus de la mère, à l’intérieur d’une poche remplie de liquide qui le met à l’abri des chocs. L’embryon est relié au placenta par le cordon ombilical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Fécondation et développement</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’embryon se développe dans l’utérus de la mère, à l’intérieur d’une poche remplie de liquide qui le met à l’abri des chocs. L’embryon est relié au placenta par le cordon ombilical.
 La grossesse dure 9 mois. Au début, l’embryon est plus petit qu’une tête d’épingle. À l’âge de 3 semaines, sa taille est celle d’un grain de blé. À la naissance, le bébé pèse 3 kg. À l’âge de 8 semaines, l’embryon ressemble déjà à un être humain en réduction et devient un fœtus.
 Au niveau du placenta, le sang de la mère et celui de son fœtus ne se mélangent pas. Cependant, les aliments et l’oxygène contenus dans le sang de la mère passent dans le sang du « bébé ». En sens inverse, les déchets (l’urée) contenus dans le sang du fœtus passent dans le sang maternel.
 La naissance d’un bébé n’est possible que si un ovule est fécondé par un spermatozoïde. L’œuf se fixe dans l’utérus de la mère et devient le bébé.
@@ -643,10 +1126,80 @@
 Le placenta est une zone d’échanges entre le sang de la mère et celui du bébé.
 De fortes contractions de l’utérus entraînent la rupture de la poche des eaux et poussent le bébé dehors. Le col de l’utérus se dilate et le bébé sort, la tête la première normalement. Dix minutes après la sortie du bébé, de nouvelles contractions de l’utérus expulsent le placenta.
 L’accouchement représente, pour le nouveau-né, un changement considérable de ses conditions de vie. Dès que sa tête apparaît, l’enfant aspire d’abord un grand bol d’air qui déplisse ses alvéoles pulmonaires puis il expire profondément en poussant son premier cri. Le bébé n’a plus besoin du placenta pour respirer, manger… À partir de maintenant, il respire avec son nez, mange avec sa bouche, urine grâce à ses reins…
-Croissance
-Les membres inférieurs étant généralement repliés, on mesure le fœtus du sommet de sa tête au coccyx.
-Quelques étapes caractéristiques après la naissance
-1 mois :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Fécondation et développement</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres inférieurs étant généralement repliés, on mesure le fœtus du sommet de sa tête au coccyx.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reproduction_humaine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Fécondation et développement</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Quelques étapes caractéristiques après la naissance</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1 mois :
 le bébé dort 20 heures par jour ;
 il faut prendre soin de l'allonger sur le dos pour éviter tous risques d'étouffements.
 4 mois :
